--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCF/10/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCF/10/seed5/result_data_RandomForest.xlsx
@@ -536,7 +536,7 @@
         <v>7.87</v>
       </c>
       <c r="C6" t="n">
-        <v>-11.50720000000001</v>
+        <v>-11.6811</v>
       </c>
       <c r="D6" t="n">
         <v>-8.59</v>
@@ -553,7 +553,7 @@
         <v>6.56</v>
       </c>
       <c r="C7" t="n">
-        <v>-11.7284</v>
+        <v>-11.9744</v>
       </c>
       <c r="D7" t="n">
         <v>-9.31</v>
@@ -567,7 +567,7 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>4.473700000000003</v>
+        <v>4.689600000000001</v>
       </c>
       <c r="C8" t="n">
         <v>-11.02</v>
@@ -632,10 +632,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.71510000000002</v>
+        <v>-22.76610000000002</v>
       </c>
       <c r="B12" t="n">
-        <v>5.582500000000002</v>
+        <v>6.1213</v>
       </c>
       <c r="C12" t="n">
         <v>-15.79</v>
@@ -669,7 +669,7 @@
         <v>-20.07</v>
       </c>
       <c r="B14" t="n">
-        <v>8.465700000000004</v>
+        <v>8.411000000000007</v>
       </c>
       <c r="C14" t="n">
         <v>-11.89</v>
@@ -757,13 +757,13 @@
         <v>5.44</v>
       </c>
       <c r="C19" t="n">
-        <v>-13.18199999999999</v>
+        <v>-13.45179999999999</v>
       </c>
       <c r="D19" t="n">
         <v>-8.470000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>13.5604</v>
+        <v>13.4306</v>
       </c>
     </row>
     <row r="20">
@@ -791,7 +791,7 @@
         <v>7.49</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.96460000000001</v>
+        <v>-13.0117</v>
       </c>
       <c r="D21" t="n">
         <v>-8.890000000000001</v>
@@ -805,7 +805,7 @@
         <v>-20.95</v>
       </c>
       <c r="B22" t="n">
-        <v>4.801700000000005</v>
+        <v>4.758800000000005</v>
       </c>
       <c r="C22" t="n">
         <v>-10.65</v>
@@ -842,7 +842,7 @@
         <v>9.130000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>-11.3503</v>
+        <v>-11.48699999999999</v>
       </c>
       <c r="D24" t="n">
         <v>-9.24</v>
